--- a/plan.xlsx
+++ b/plan.xlsx
@@ -183,11 +183,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动</t>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>执行中</t>
   </si>
 </sst>
 </file>
@@ -324,9 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -339,11 +336,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -354,6 +396,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -368,294 +438,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -966,282 +749,282 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>42990</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43007</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>42990</v>
-      </c>
-      <c r="D3" s="3">
-        <v>43007</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="14.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="14.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="14.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="14.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="14.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="14.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="14.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="14.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="14.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="14.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="14.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="14.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="14.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1249,65 +1032,65 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="44" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"执行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"启动"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"执行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"执行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"执行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F22">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"执行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"启动"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F22">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"执行中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F22">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"执行中"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
